--- a/Known issues.xlsx
+++ b/Known issues.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>Issue description</t>
   </si>
@@ -58,6 +58,21 @@
   </si>
   <si>
     <t>Handle DAQmx errors when setting up DAQmx tasks and couple them to the task controller state. If an error is encountered while setting up a DAQmx task, then the task controller should be switched to an Unconfigured state so that it cannot be executed from the task tree</t>
+  </si>
+  <si>
+    <t>When a task controller is dropped as a child of another task controller in the Task Tree, the selection jumps back to the first element in the Task Tree. This is because the task tree is re-assembled each time an a task controller item is dragged and dropped. This gives a slightly annoying user experience when assembing task trees.</t>
+  </si>
+  <si>
+    <t>Laser Scanning, galvo axis calibration</t>
+  </si>
+  <si>
+    <t>When interrupting a scan axis calibration in progress by pressing the stop button on the UITC, often a General Protection Fault error is thrown. The scan calibration should be able to stop in a more reliable way.</t>
+  </si>
+  <si>
+    <t>Reported by</t>
+  </si>
+  <si>
+    <t>Adrian</t>
   </si>
 </sst>
 </file>
@@ -425,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -437,10 +452,12 @@
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="33.85546875" customWidth="1"/>
     <col min="4" max="4" width="95.28515625" customWidth="1"/>
-    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="48.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="29.25" customHeight="1">
+    <row r="1" spans="1:7" ht="29.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -454,13 +471,16 @@
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="45">
+    <row r="2" spans="1:7" ht="45">
       <c r="A2" s="9">
         <v>42024</v>
       </c>
@@ -473,10 +493,12 @@
       <c r="D2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="7"/>
+      <c r="E2" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="30">
+    <row r="3" spans="1:7" ht="30">
       <c r="A3" s="9">
         <v>42024</v>
       </c>
@@ -489,10 +511,12 @@
       <c r="D3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6" ht="45">
+    <row r="4" spans="1:7" ht="45">
       <c r="A4" s="9">
         <v>42024</v>
       </c>
@@ -505,26 +529,48 @@
       <c r="D4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="9"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="7"/>
+    <row r="5" spans="1:7" ht="60">
+      <c r="A5" s="9">
+        <v>42024</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="9"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="7"/>
+    <row r="6" spans="1:7" ht="45">
+      <c r="A6" s="9">
+        <v>42024</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="9"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -532,7 +578,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" s="9"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -540,7 +586,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" s="9"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -548,7 +594,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" s="9"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -556,7 +602,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" s="9"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -564,7 +610,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" s="9"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -572,7 +618,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" s="9"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -580,7 +626,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" s="9"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -588,7 +634,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15" s="9"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -596,7 +642,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="A16" s="9"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>

--- a/Known issues.xlsx
+++ b/Known issues.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>Issue description</t>
   </si>
@@ -73,6 +73,18 @@
   </si>
   <si>
     <t>Adrian</t>
+  </si>
+  <si>
+    <t>Develop a uniform naming system for Vchans and modify DLGetUniqueVChanName. The naming convention should be "&lt;module name&gt;: &lt;task controller name&gt;: &lt;VChanName&gt; &lt;number&gt;" with the number being optional in case there would be multiple Vchans with the same name. One issue to address in this case is how to change the VChan name if the module or task controller names change</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>DAQLab, task controller</t>
+  </si>
+  <si>
+    <t>If an error is encountered when executing an UITC and after that the UITC is reset and started again, then the UITC receives a Start event while it is stuck in its Configured state. This is seen when the UITC has child TCs, and it is possible that there is some sort of race condition again between threads. Sometimes an error does not need to occur, it seems that the reset itself is just unreliable.</t>
   </si>
 </sst>
 </file>
@@ -443,7 +455,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -570,20 +582,40 @@
       </c>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="9"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="7"/>
+    <row r="7" spans="1:7" ht="60">
+      <c r="A7" s="9">
+        <v>42025</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="9"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="7"/>
+    <row r="8" spans="1:7" ht="60">
+      <c r="A8" s="9">
+        <v>42025</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:7">

--- a/Known issues.xlsx
+++ b/Known issues.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>Issue description</t>
   </si>
@@ -48,9 +48,6 @@
     <t>DAQmx, function AddDAQmxChannel</t>
   </si>
   <si>
-    <t>Implement a more rigorous way of generating names for VChans that must be unique. Modify DLGetUniquevChanName to make use of the module and task controller names</t>
-  </si>
-  <si>
     <t>DAQLab</t>
   </si>
   <si>
@@ -63,28 +60,22 @@
     <t>When a task controller is dropped as a child of another task controller in the Task Tree, the selection jumps back to the first element in the Task Tree. This is because the task tree is re-assembled each time an a task controller item is dragged and dropped. This gives a slightly annoying user experience when assembing task trees.</t>
   </si>
   <si>
-    <t>Laser Scanning, galvo axis calibration</t>
-  </si>
-  <si>
-    <t>When interrupting a scan axis calibration in progress by pressing the stop button on the UITC, often a General Protection Fault error is thrown. The scan calibration should be able to stop in a more reliable way.</t>
-  </si>
-  <si>
     <t>Reported by</t>
   </si>
   <si>
     <t>Adrian</t>
   </si>
   <si>
-    <t>Develop a uniform naming system for Vchans and modify DLGetUniqueVChanName. The naming convention should be "&lt;module name&gt;: &lt;task controller name&gt;: &lt;VChanName&gt; &lt;number&gt;" with the number being optional in case there would be multiple Vchans with the same name. One issue to address in this case is how to change the VChan name if the module or task controller names change</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>DAQLab, task controller</t>
-  </si>
-  <si>
-    <t>If an error is encountered when executing an UITC and after that the UITC is reset and started again, then the UITC receives a Start event while it is stuck in its Configured state. This is seen when the UITC has child TCs, and it is possible that there is some sort of race condition again between threads. Sometimes an error does not need to occur, it seems that the reset itself is just unreliable.</t>
+    <t>Laser scanning and DAQmx interaction</t>
+  </si>
+  <si>
+    <t>When AI sampling rate is 200 KHz and 3x oversampling is used, so that an actual sampling rate of 600 KHz is used for a 5us pixel dwell time, then the image looks bad. For other values of the oversampling such as 1,2,4,5 the image looks good.  Investigate why other values for the pixel dwell time such as 3.125 us give a bad image. Is the algorithm going wrong somewhere ??</t>
+  </si>
+  <si>
+    <t>data storage</t>
+  </si>
+  <si>
+    <t>If Rawdata default directory is not present, then create it by default.</t>
   </si>
 </sst>
 </file>
@@ -455,7 +446,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -483,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -506,26 +497,16 @@
         <v>8</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="9">
-        <v>42024</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>18</v>
-      </c>
+    <row r="3" spans="1:7">
+      <c r="A3" s="9"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:7" ht="45">
@@ -539,10 +520,10 @@
         <v>7</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F4" s="7"/>
     </row>
@@ -551,71 +532,61 @@
         <v>42024</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:7" ht="45">
+    <row r="6" spans="1:7" ht="60">
       <c r="A6" s="9">
-        <v>42024</v>
+        <v>42168</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="9">
+        <v>42168</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:7" ht="60">
-      <c r="A7" s="9">
-        <v>42025</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="60">
-      <c r="A8" s="9">
-        <v>42025</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>18</v>
-      </c>
+    <row r="8" spans="1:7">
+      <c r="A8" s="9"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:7">

--- a/Known issues.xlsx
+++ b/Known issues.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>Issue description</t>
   </si>
@@ -76,6 +76,15 @@
   </si>
   <si>
     <t>If Rawdata default directory is not present, then create it by default.</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>task controller</t>
+  </si>
+  <si>
+    <t>if task controller is set to iterate in parallel with child TCs then it receives an iteration event while it is in a done state. This error was seen before but it was corrected. It seems that it was corrected only for the case when the task controller is set to iterate before child TCs. In this case everything works fine. To reproduce the error, set up an UITC, add the scan engine as child and set it to iterate in parallel with child TCs. Add as children to the scan engine the DAQdev and pockells modules. Then set the UITC to do multiple iterations.</t>
   </si>
 </sst>
 </file>
@@ -443,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D13" sqref="D8:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -501,26 +510,36 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="9"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="7"/>
+    <row r="3" spans="1:7" ht="45">
+      <c r="A3" s="9">
+        <v>42024</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="45">
+    <row r="4" spans="1:7" ht="60">
       <c r="A4" s="9">
         <v>42024</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>15</v>
@@ -529,56 +548,54 @@
     </row>
     <row r="5" spans="1:7" ht="60">
       <c r="A5" s="9">
-        <v>42024</v>
+        <v>42168</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:7" ht="60">
+    <row r="6" spans="1:7">
       <c r="A6" s="9">
         <v>42168</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="90">
       <c r="A7" s="9">
-        <v>42168</v>
+        <v>42205</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>15</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E7" s="7"/>
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:7">
@@ -766,27 +783,19 @@
       <c r="F30" s="7"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="9"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="6"/>
       <c r="D31" s="8"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="10"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="6"/>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="3"/>
-      <c r="B33" s="4"/>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="2"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="4"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Known issues.xlsx
+++ b/Known issues.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>Issue description</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>if task controller is set to iterate in parallel with child TCs then it receives an iteration event while it is in a done state. This error was seen before but it was corrected. It seems that it was corrected only for the case when the task controller is set to iterate before child TCs. In this case everything works fine. To reproduce the error, set up an UITC, add the scan engine as child and set it to iterate in parallel with child TCs. Add as children to the scan engine the DAQdev and pockells modules. Then set the UITC to do multiple iterations.</t>
+  </si>
+  <si>
+    <t>task controller and Vchans</t>
+  </si>
+  <si>
+    <t>When removing a task controller from the task tree, its source Vchans are not sending data anymore to SinkVChans belonging to the task tree, and the task tree execution will time out. To correct this, Source Vchans should be also associated (and registered) with task controllers so that they are disconnected from their sinks if the task controller is removed from the task tree</t>
   </si>
 </sst>
 </file>
@@ -455,7 +461,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D8:D13"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -595,15 +601,27 @@
       <c r="D7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="9"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="7"/>
+    <row r="8" spans="1:7" ht="60">
+      <c r="A8" s="9">
+        <v>42205</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:7">

--- a/Known issues.xlsx
+++ b/Known issues.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Issue description</t>
   </si>
@@ -84,13 +84,16 @@
     <t>task controller</t>
   </si>
   <si>
-    <t>if task controller is set to iterate in parallel with child TCs then it receives an iteration event while it is in a done state. This error was seen before but it was corrected. It seems that it was corrected only for the case when the task controller is set to iterate before child TCs. In this case everything works fine. To reproduce the error, set up an UITC, add the scan engine as child and set it to iterate in parallel with child TCs. Add as children to the scan engine the DAQdev and pockells modules. Then set the UITC to do multiple iterations.</t>
-  </si>
-  <si>
     <t>task controller and Vchans</t>
   </si>
   <si>
     <t>When removing a task controller from the task tree, its source Vchans are not sending data anymore to SinkVChans belonging to the task tree, and the task tree execution will time out. To correct this, Source Vchans should be also associated (and registered) with task controllers so that they are disconnected from their sinks if the task controller is removed from the task tree</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Stopping a task controller from iterating in continuous mode often causes the error "Iterate event is invalid for Done state". This is not seen when settings the task controller to finite iterations, presumably because in Idle state iterate events are ignored. The iterate event that causes this problem is sent from the Iteration Function Active State. See file "task controller error.txt"</t>
   </si>
 </sst>
 </file>
@@ -134,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -163,6 +166,12 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -458,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -473,9 +482,10 @@
     <col min="5" max="5" width="29.140625" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" customWidth="1"/>
     <col min="7" max="7" width="48.28515625" customWidth="1"/>
+    <col min="8" max="8" width="74.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="29.25" customHeight="1">
+    <row r="1" spans="1:8" ht="29.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -494,11 +504,14 @@
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="45">
+      <c r="H1" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="45">
       <c r="A2" s="9">
         <v>42024</v>
       </c>
@@ -515,8 +528,10 @@
         <v>15</v>
       </c>
       <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:7" ht="45">
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" ht="45">
       <c r="A3" s="9">
         <v>42024</v>
       </c>
@@ -533,8 +548,10 @@
         <v>15</v>
       </c>
       <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:7" ht="60">
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="1:8" ht="60">
       <c r="A4" s="9">
         <v>42024</v>
       </c>
@@ -551,8 +568,10 @@
         <v>15</v>
       </c>
       <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:7" ht="60">
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:8" ht="60">
       <c r="A5" s="9">
         <v>42168</v>
       </c>
@@ -569,8 +588,10 @@
         <v>15</v>
       </c>
       <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="9">
         <v>42168</v>
       </c>
@@ -587,44 +608,50 @@
         <v>15</v>
       </c>
       <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:7" ht="90">
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="1:8" ht="60">
       <c r="A7" s="9">
         <v>42205</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" ht="60">
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:8" ht="60">
       <c r="A8" s="9">
-        <v>42205</v>
+        <v>42217</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="9"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -632,7 +659,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="9"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -640,7 +667,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="9"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -648,7 +675,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="9"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -656,7 +683,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="9"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -664,7 +691,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14" s="9"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -672,7 +699,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15" s="9"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -680,7 +707,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16" s="9"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -793,27 +820,19 @@
       <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="9"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="6"/>
       <c r="D30" s="8"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="10"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="6"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="4"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="3"/>
-      <c r="B32" s="4"/>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="2"/>
+      <c r="A32" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
